--- a/1.INTRO/sample_timeseries.xlsx
+++ b/1.INTRO/sample_timeseries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sample1" sheetId="1" state="visible" r:id="rId2"/>
@@ -127,12 +127,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
     <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -283,11 +282,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -550,112 +549,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>104.50927333626</c:v>
+                  <c:v>106.42796235488</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118.563322935943</c:v>
+                  <c:v>116.976028626156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132.998712272018</c:v>
+                  <c:v>130.978981290838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.696846074686</c:v>
+                  <c:v>146.201359648437</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143.799659984297</c:v>
+                  <c:v>144.809772282767</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>130.532294799654</c:v>
+                  <c:v>138.026334487611</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>125.507552219137</c:v>
+                  <c:v>122.34705016698</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121.925119785735</c:v>
+                  <c:v>116.802083674283</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111.179303407595</c:v>
+                  <c:v>117.450725138249</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>115.469206415554</c:v>
+                  <c:v>129.455795006961</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>135.877133321589</c:v>
+                  <c:v>136.757918988469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151.071260116356</c:v>
+                  <c:v>147.995338012122</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>166.212210299022</c:v>
+                  <c:v>156.082121270751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>178.251599633097</c:v>
+                  <c:v>178.571596056027</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>190.59698242439</c:v>
+                  <c:v>183.878022854539</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>205.40693799675</c:v>
+                  <c:v>203.626543970726</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>207.708855634113</c:v>
+                  <c:v>200.335891091057</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.184373805124</c:v>
+                  <c:v>205.64151955144</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>182.751768760653</c:v>
+                  <c:v>184.861827360311</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>180.147871868479</c:v>
+                  <c:v>178.216256471235</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183.54746829021</c:v>
+                  <c:v>187.549606274257</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>182.461293010663</c:v>
+                  <c:v>181.908889679267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>185.399546940557</c:v>
+                  <c:v>194.132749803166</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>208.094040510222</c:v>
+                  <c:v>199.490245731804</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>219.091406921428</c:v>
+                  <c:v>222.183643007917</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>236.727788360033</c:v>
+                  <c:v>232.004251588127</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>257.305112545475</c:v>
+                  <c:v>252.584190167064</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>251.265868681502</c:v>
+                  <c:v>251.970313795975</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>265.05720151914</c:v>
+                  <c:v>269.750707389976</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>265.07644250969</c:v>
+                  <c:v>263.892202522913</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>246.297727149798</c:v>
+                  <c:v>244.62750897271</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>241.203953985357</c:v>
+                  <c:v>239.97473233374</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>237.888763514531</c:v>
+                  <c:v>231.495863082827</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>234.85713540405</c:v>
+                  <c:v>240.467021138167</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>246.458389341027</c:v>
+                  <c:v>257.711623910469</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>270.562142201171</c:v>
+                  <c:v>268.81233064033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,11 +958,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="30472421"/>
-        <c:axId val="3748946"/>
+        <c:axId val="7402933"/>
+        <c:axId val="37553362"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="30472421"/>
+        <c:axId val="7402933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -991,7 +990,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3748946"/>
+        <c:crossAx val="37553362"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -999,7 +998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="3748946"/>
+        <c:axId val="37553362"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30472421"/>
+        <c:crossAx val="7402933"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1271,112 +1270,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>99.4657872075789</c:v>
+                  <c:v>109.380153106873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137.369072574898</c:v>
+                  <c:v>167.512402063999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167.494104520948</c:v>
+                  <c:v>146.70096720257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.289111802665</c:v>
+                  <c:v>158.695476847721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152.708701760029</c:v>
+                  <c:v>144.790288454348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>173.391219407932</c:v>
+                  <c:v>188.94638183435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>194.791811208742</c:v>
+                  <c:v>164.277628741574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176.746357605688</c:v>
+                  <c:v>162.965133407581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.508921280432</c:v>
+                  <c:v>147.599123085359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123.364761244498</c:v>
+                  <c:v>111.977104469036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161.597548625751</c:v>
+                  <c:v>146.068998998529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>194.315207914736</c:v>
+                  <c:v>190.852219252427</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>216.792104118668</c:v>
+                  <c:v>241.04107077597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>235.103185559545</c:v>
+                  <c:v>244.183744635757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>265.539928792981</c:v>
+                  <c:v>273.348170114909</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>302.211238139128</c:v>
+                  <c:v>422.231372112754</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>299.230270227004</c:v>
+                  <c:v>298.815892485916</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>307.636996711646</c:v>
+                  <c:v>293.043936450145</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>271.85499855054</c:v>
+                  <c:v>252.865613058491</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>222.491558450558</c:v>
+                  <c:v>249.123578852206</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>245.616562977765</c:v>
+                  <c:v>269.054390161551</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>262.484981866219</c:v>
+                  <c:v>282.121484111924</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>255.816427763289</c:v>
+                  <c:v>293.089053633412</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>238.255745652872</c:v>
+                  <c:v>314.59685713136</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>256.162257823831</c:v>
+                  <c:v>321.904715509747</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>315.85101750552</c:v>
+                  <c:v>383.104722946638</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>335.512779185105</c:v>
+                  <c:v>407.253100239186</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>346.267692615434</c:v>
+                  <c:v>435.315386855425</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>310.995465760233</c:v>
+                  <c:v>385.897714818162</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>282.810074204017</c:v>
+                  <c:v>382.647008903997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>285.638492467512</c:v>
+                  <c:v>388.859534559539</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>297.793615540566</c:v>
+                  <c:v>416.522390165783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>254.204793142899</c:v>
+                  <c:v>413.761945164266</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>232.032280981114</c:v>
+                  <c:v>391.153966314596</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>223.651366119518</c:v>
+                  <c:v>374.77317766721</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>273.888172172126</c:v>
+                  <c:v>414.520187046794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,11 +1390,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="77181632"/>
-        <c:axId val="83819033"/>
+        <c:axId val="22121656"/>
+        <c:axId val="24542782"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77181632"/>
+        <c:axId val="22121656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1422,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83819033"/>
+        <c:crossAx val="24542782"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1431,7 +1430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83819033"/>
+        <c:axId val="24542782"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1467,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77181632"/>
+        <c:crossAx val="22121656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1703,112 +1702,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>99.4657872075789</c:v>
+                  <c:v>109.380153106873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>137.369072574898</c:v>
+                  <c:v>167.512402063999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167.494104520948</c:v>
+                  <c:v>146.70096720257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150.289111802665</c:v>
+                  <c:v>158.695476847721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>152.708701760029</c:v>
+                  <c:v>144.790288454348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>173.391219407932</c:v>
+                  <c:v>188.94638183435</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>194.791811208742</c:v>
+                  <c:v>164.277628741574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176.746357605688</c:v>
+                  <c:v>162.965133407581</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.508921280432</c:v>
+                  <c:v>147.599123085359</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>123.364761244498</c:v>
+                  <c:v>111.977104469036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>161.597548625751</c:v>
+                  <c:v>146.068998998529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>194.315207914736</c:v>
+                  <c:v>190.852219252427</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>216.792104118668</c:v>
+                  <c:v>241.04107077597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>235.103185559545</c:v>
+                  <c:v>244.183744635757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>265.539928792981</c:v>
+                  <c:v>273.348170114909</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>302.211238139128</c:v>
+                  <c:v>422.231372112754</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>299.230270227004</c:v>
+                  <c:v>298.815892485916</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>307.636996711646</c:v>
+                  <c:v>293.043936450145</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>271.85499855054</c:v>
+                  <c:v>252.865613058491</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>222.491558450558</c:v>
+                  <c:v>249.123578852206</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>245.616562977765</c:v>
+                  <c:v>269.054390161551</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>262.484981866219</c:v>
+                  <c:v>282.121484111924</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>255.816427763289</c:v>
+                  <c:v>293.089053633412</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>238.255745652872</c:v>
+                  <c:v>314.59685713136</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>256.162257823831</c:v>
+                  <c:v>321.904715509747</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>315.85101750552</c:v>
+                  <c:v>383.104722946638</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>335.512779185105</c:v>
+                  <c:v>407.253100239186</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>346.267692615434</c:v>
+                  <c:v>435.315386855425</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>310.995465760233</c:v>
+                  <c:v>385.897714818162</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>282.810074204017</c:v>
+                  <c:v>382.647008903997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>285.638492467512</c:v>
+                  <c:v>388.859534559539</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>297.793615540566</c:v>
+                  <c:v>416.522390165783</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>254.204793142899</c:v>
+                  <c:v>413.761945164266</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>232.032280981114</c:v>
+                  <c:v>391.153966314596</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>223.651366119518</c:v>
+                  <c:v>374.77317766721</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>273.888172172126</c:v>
+                  <c:v>414.520187046794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,55 +2048,55 @@
                   <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>280</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>280</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>280</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>280</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>280</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>280</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>280</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>280</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>280</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>280</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>280</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>280</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>280</c:v>
+                  <c:v>410</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>280</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>280</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>280</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>280</c:v>
+                  <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,11 +2111,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="96340008"/>
-        <c:axId val="27999362"/>
+        <c:axId val="7089107"/>
+        <c:axId val="86157633"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96340008"/>
+        <c:axId val="7089107"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2143,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27999362"/>
+        <c:crossAx val="86157633"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2152,7 +2151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27999362"/>
+        <c:axId val="86157633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,7 +2188,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96340008"/>
+        <c:crossAx val="7089107"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3002,112 +3001,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>-0.534212792421116</c:v>
+                  <c:v>9.38015310687311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.3690725748975</c:v>
+                  <c:v>57.5124020639992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.4941045209483</c:v>
+                  <c:v>26.7009672025701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.2891118026647</c:v>
+                  <c:v>28.6954768477214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.7087017600287</c:v>
+                  <c:v>4.79028845434831</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.3912194079316</c:v>
+                  <c:v>38.9463818343497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.7918112087418</c:v>
+                  <c:v>4.27762874157368</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.74635760568755</c:v>
+                  <c:v>-7.03486659241951</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-53.4910787195675</c:v>
+                  <c:v>-32.400876914641</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-66.6352387555019</c:v>
+                  <c:v>-78.0228955309641</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-38.402451374249</c:v>
+                  <c:v>-53.9310010014711</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.684792085264</c:v>
+                  <c:v>-19.1477807475731</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.20789588133208</c:v>
+                  <c:v>21.0410707759699</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.10318555954526</c:v>
+                  <c:v>14.1837446357573</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.5399287929814</c:v>
+                  <c:v>33.3481701149086</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52.2112381391275</c:v>
+                  <c:v>52.2313721127535</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>39.2302702270035</c:v>
+                  <c:v>38.8158924859156</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.6369967116461</c:v>
+                  <c:v>23.0439364501447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.14500144945999</c:v>
+                  <c:v>-27.1343869415091</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-57.5084415494421</c:v>
+                  <c:v>-40.8764211477945</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-34.3834370222348</c:v>
+                  <c:v>-30.945609838449</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-17.5150181337807</c:v>
+                  <c:v>-27.8785158880757</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-24.1835722367112</c:v>
+                  <c:v>-26.9109463665876</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-41.744254347128</c:v>
+                  <c:v>-15.4031428686404</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-23.8377421761691</c:v>
+                  <c:v>-18.0952844902527</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.8510175055197</c:v>
+                  <c:v>33.1047229466383</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55.512779185105</c:v>
+                  <c:v>47.253100239186</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>66.2676926154341</c:v>
+                  <c:v>65.3153868554251</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.9954657602329</c:v>
+                  <c:v>5.89771481816197</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.8100742040172</c:v>
+                  <c:v>-7.35299109600335</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.63849246751172</c:v>
+                  <c:v>-11.1404654404607</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.7936155405664</c:v>
+                  <c:v>6.52239016578247</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-25.7952068571011</c:v>
+                  <c:v>-6.23805483573437</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-47.9677190188864</c:v>
+                  <c:v>-38.8460336854045</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-56.3486338804823</c:v>
+                  <c:v>-65.2268223327899</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-6.11182782787405</c:v>
+                  <c:v>-35.4798129532059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,11 +3121,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="4302251"/>
-        <c:axId val="78009115"/>
+        <c:axId val="34793667"/>
+        <c:axId val="46210240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4302251"/>
+        <c:axId val="34793667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3154,7 +3153,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78009115"/>
+        <c:crossAx val="46210240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3162,7 +3161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78009115"/>
+        <c:axId val="46210240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3198,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4302251"/>
+        <c:crossAx val="34793667"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3297,6 +3296,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3727,17 +3727,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24836145"/>
-        <c:axId val="35826221"/>
+        <c:axId val="18477971"/>
+        <c:axId val="39110134"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24836145"/>
+        <c:axId val="18477971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3759,7 +3759,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35826221"/>
+        <c:crossAx val="39110134"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3767,7 +3767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35826221"/>
+        <c:axId val="39110134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3782,7 +3782,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3804,7 +3804,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24836145"/>
+        <c:crossAx val="18477971"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3863,9 +3863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>197280</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3874,7 +3874,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8140680" y="131760"/>
-        <a:ext cx="7955280" cy="4474440"/>
+        <a:ext cx="7954920" cy="4474080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3898,9 +3898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>649080</xdr:colOff>
+      <xdr:colOff>648720</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3909,7 +3909,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10108800" y="98640"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3928,9 +3928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
+      <xdr:colOff>634680</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3939,7 +3939,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10094760" y="3411720"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3958,9 +3958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
+      <xdr:colOff>522720</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>62280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3969,7 +3969,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9982800" y="6739560"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3993,9 +3993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
+      <xdr:colOff>105840</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4004,7 +4004,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2474640" y="7188480"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4024,10 +4024,10 @@
   </sheetPr>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="C2" s="4" t="n">
         <f aca="false">SUM(D2:F2)</f>
-        <v>104.50927333626</v>
+        <v>106.42796235488</v>
       </c>
       <c r="D2" s="1" t="n">
         <f aca="false">100 + 5 * A2</f>
@@ -4085,7 +4085,7 @@
       </c>
       <c r="F2" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>4.50927333626018</v>
+        <v>6.42796235487985</v>
       </c>
       <c r="G2" s="4" t="n">
         <f aca="false">SUM(D2:E2)</f>
@@ -4093,11 +4093,11 @@
       </c>
       <c r="H2" s="4" t="n">
         <f aca="false">D2+F2</f>
-        <v>104.50927333626</v>
+        <v>106.42796235488</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">E2+F2</f>
-        <v>4.50927333626018</v>
+        <v>6.42796235487985</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="C3" s="4" t="n">
         <f aca="false">SUM(D3:F3)</f>
-        <v>118.563322935943</v>
+        <v>116.976028626156</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">100 + 5 * A3</f>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="F3" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>1.06332293594345</v>
+        <v>-0.523971373843789</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">SUM(D3:E3)</f>
@@ -4130,11 +4130,11 @@
       </c>
       <c r="H3" s="4" t="n">
         <f aca="false">D3+F3</f>
-        <v>106.063322935943</v>
+        <v>104.476028626156</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">E3+F3</f>
-        <v>13.5633229359435</v>
+        <v>11.9760286261562</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C4" s="4" t="n">
         <f aca="false">SUM(D4:F4)</f>
-        <v>132.998712272018</v>
+        <v>130.978981290838</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">100 + 5 * A4</f>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="F4" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>1.34807717740665</v>
+        <v>-0.671653803772824</v>
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">SUM(D4:E4)</f>
@@ -4167,11 +4167,11 @@
       </c>
       <c r="H4" s="4" t="n">
         <f aca="false">D4+F4</f>
-        <v>111.348077177407</v>
+        <v>109.328346196227</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">E4+F4</f>
-        <v>22.9987122720176</v>
+        <v>20.9789812908382</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="C5" s="4" t="n">
         <f aca="false">SUM(D5:F5)</f>
-        <v>146.696846074686</v>
+        <v>146.201359648437</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">100 + 5 * A5</f>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="F5" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>6.69684607468638</v>
+        <v>6.20135964843684</v>
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">SUM(D5:E5)</f>
@@ -4204,11 +4204,11 @@
       </c>
       <c r="H5" s="4" t="n">
         <f aca="false">D5+F5</f>
-        <v>121.696846074686</v>
+        <v>121.201359648437</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">E5+F5</f>
-        <v>31.6968460746864</v>
+        <v>31.2013596484368</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C6" s="4" t="n">
         <f aca="false">SUM(D6:F6)</f>
-        <v>143.799659984297</v>
+        <v>144.809772282767</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">100 + 5 * A6</f>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F6" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>2.1490248896865</v>
+        <v>3.15913718815589</v>
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">SUM(D6:E6)</f>
@@ -4241,11 +4241,11 @@
       </c>
       <c r="H6" s="4" t="n">
         <f aca="false">D6+F6</f>
-        <v>122.149024889687</v>
+        <v>123.159137188156</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">E6+F6</f>
-        <v>23.7996599842975</v>
+        <v>24.8097722827669</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C7" s="4" t="n">
         <f aca="false">SUM(D7:F7)</f>
-        <v>130.532294799654</v>
+        <v>138.026334487611</v>
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">100 + 5 * A7</f>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="F7" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-6.9677052003463</v>
+        <v>0.526334487610626</v>
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">SUM(D7:E7)</f>
@@ -4278,11 +4278,11 @@
       </c>
       <c r="H7" s="4" t="n">
         <f aca="false">D7+F7</f>
-        <v>118.032294799654</v>
+        <v>125.526334487611</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">E7+F7</f>
-        <v>5.5322947996537</v>
+        <v>13.0263344876106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="C8" s="4" t="n">
         <f aca="false">SUM(D8:F8)</f>
-        <v>125.507552219137</v>
+        <v>122.34705016698</v>
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">100 + 5 * A8</f>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="F8" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-4.49244778086335</v>
+        <v>-7.6529498330198</v>
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">SUM(D8:E8)</f>
@@ -4315,11 +4315,11 @@
       </c>
       <c r="H8" s="4" t="n">
         <f aca="false">D8+F8</f>
-        <v>125.507552219137</v>
+        <v>122.34705016698</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">E8+F8</f>
-        <v>-4.49244778086334</v>
+        <v>-7.65294983301979</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,7 +4332,7 @@
       </c>
       <c r="C9" s="4" t="n">
         <f aca="false">SUM(D9:F9)</f>
-        <v>121.925119785735</v>
+        <v>116.802083674283</v>
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">100 + 5 * A9</f>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="F9" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-0.574880214265413</v>
+        <v>-5.69791632571687</v>
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">SUM(D9:E9)</f>
@@ -4352,11 +4352,11 @@
       </c>
       <c r="H9" s="4" t="n">
         <f aca="false">D9+F9</f>
-        <v>134.425119785735</v>
+        <v>129.302083674283</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">E9+F9</f>
-        <v>-13.0748802142654</v>
+        <v>-18.1979163257169</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="C10" s="4" t="n">
         <f aca="false">SUM(D10:F10)</f>
-        <v>111.179303407595</v>
+        <v>117.450725138249</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">100 + 5 * A10</f>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="F10" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-7.17006149779376</v>
+        <v>-0.89863976713953</v>
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">SUM(D10:E10)</f>
@@ -4389,11 +4389,11 @@
       </c>
       <c r="H10" s="4" t="n">
         <f aca="false">D10+F10</f>
-        <v>132.829938502206</v>
+        <v>139.10136023286</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">E10+F10</f>
-        <v>-28.8206965924047</v>
+        <v>-22.5492748617505</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="C11" s="4" t="n">
         <f aca="false">SUM(D11:F11)</f>
-        <v>115.469206415554</v>
+        <v>129.455795006961</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">100 + 5 * A11</f>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="F11" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-4.53079358444616</v>
+        <v>9.45579500696116</v>
       </c>
       <c r="G11" s="4" t="n">
         <f aca="false">SUM(D11:E11)</f>
@@ -4426,11 +4426,11 @@
       </c>
       <c r="H11" s="4" t="n">
         <f aca="false">D11+F11</f>
-        <v>140.469206415554</v>
+        <v>154.455795006961</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">E11+F11</f>
-        <v>-29.5307935844462</v>
+        <v>-15.5442049930388</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="C12" s="4" t="n">
         <f aca="false">SUM(D12:F12)</f>
-        <v>135.877133321589</v>
+        <v>136.757918988469</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">100 + 5 * A12</f>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="F12" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>7.52776841619952</v>
+        <v>8.40855408308035</v>
       </c>
       <c r="G12" s="4" t="n">
         <f aca="false">SUM(D12:E12)</f>
@@ -4463,11 +4463,11 @@
       </c>
       <c r="H12" s="4" t="n">
         <f aca="false">D12+F12</f>
-        <v>157.5277684162</v>
+        <v>158.40855408308</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">E12+F12</f>
-        <v>-14.1228666784114</v>
+        <v>-13.2420810115307</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4480,7 +4480,7 @@
       </c>
       <c r="C13" s="4" t="n">
         <f aca="false">SUM(D13:F13)</f>
-        <v>151.071260116356</v>
+        <v>147.995338012122</v>
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">100 + 5 * A13</f>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="F13" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>8.57126011635585</v>
+        <v>5.49533801212187</v>
       </c>
       <c r="G13" s="4" t="n">
         <f aca="false">SUM(D13:E13)</f>
@@ -4500,11 +4500,11 @@
       </c>
       <c r="H13" s="4" t="n">
         <f aca="false">D13+F13</f>
-        <v>163.571260116356</v>
+        <v>160.495338012122</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">E13+F13</f>
-        <v>-3.92873988364417</v>
+        <v>-7.00466198787813</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="C14" s="4" t="n">
         <f aca="false">SUM(D14:F14)</f>
-        <v>166.212210299022</v>
+        <v>156.082121270751</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">100 + 5 * A14</f>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F14" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>6.21221029902171</v>
+        <v>-3.91787872924881</v>
       </c>
       <c r="G14" s="4" t="n">
         <f aca="false">SUM(D14:E14)</f>
@@ -4537,11 +4537,11 @@
       </c>
       <c r="H14" s="4" t="n">
         <f aca="false">D14+F14</f>
-        <v>166.212210299022</v>
+        <v>156.082121270751</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">E14+F14</f>
-        <v>6.2122102990217</v>
+        <v>-3.91787872924881</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="C15" s="4" t="n">
         <f aca="false">SUM(D15:F15)</f>
-        <v>178.251599633097</v>
+        <v>178.571596056027</v>
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">100 + 5 * A15</f>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="F15" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>0.751599633096962</v>
+        <v>1.07159605602663</v>
       </c>
       <c r="G15" s="4" t="n">
         <f aca="false">SUM(D15:E15)</f>
@@ -4574,11 +4574,11 @@
       </c>
       <c r="H15" s="4" t="n">
         <f aca="false">D15+F15</f>
-        <v>165.751599633097</v>
+        <v>166.071596056027</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">E15+F15</f>
-        <v>13.251599633097</v>
+        <v>13.5715960560266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="C16" s="4" t="n">
         <f aca="false">SUM(D16:F16)</f>
-        <v>190.59698242439</v>
+        <v>183.878022854539</v>
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">100 + 5 * A16</f>
@@ -4603,7 +4603,7 @@
       </c>
       <c r="F16" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-1.05365267022136</v>
+        <v>-7.7726122400725</v>
       </c>
       <c r="G16" s="4" t="n">
         <f aca="false">SUM(D16:E16)</f>
@@ -4611,11 +4611,11 @@
       </c>
       <c r="H16" s="4" t="n">
         <f aca="false">D16+F16</f>
-        <v>168.946347329779</v>
+        <v>162.227387759928</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">E16+F16</f>
-        <v>20.5969824243896</v>
+        <v>13.8780228545385</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="C17" s="4" t="n">
         <f aca="false">SUM(D17:F17)</f>
-        <v>205.40693799675</v>
+        <v>203.626543970726</v>
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">100 + 5 * A17</f>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="F17" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>5.40693799674988</v>
+        <v>3.62654397072573</v>
       </c>
       <c r="G17" s="4" t="n">
         <f aca="false">SUM(D17:E17)</f>
@@ -4648,11 +4648,11 @@
       </c>
       <c r="H17" s="4" t="n">
         <f aca="false">D17+F17</f>
-        <v>180.40693799675</v>
+        <v>178.626543970726</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">E17+F17</f>
-        <v>30.4069379967499</v>
+        <v>28.6265439707257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="C18" s="4" t="n">
         <f aca="false">SUM(D18:F18)</f>
-        <v>207.708855634113</v>
+        <v>200.335891091057</v>
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">100 + 5 * A18</f>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="F18" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>6.05822053950246</v>
+        <v>-1.31474400355429</v>
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">SUM(D18:E18)</f>
@@ -4685,11 +4685,11 @@
       </c>
       <c r="H18" s="4" t="n">
         <f aca="false">D18+F18</f>
-        <v>186.058220539502</v>
+        <v>178.685255996446</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">E18+F18</f>
-        <v>27.7088556341134</v>
+        <v>20.3358910910567</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="C19" s="4" t="n">
         <f aca="false">SUM(D19:F19)</f>
-        <v>203.184373805124</v>
+        <v>205.64151955144</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">100 + 5 * A19</f>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="F19" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>5.68437380512362</v>
+        <v>8.14151955143987</v>
       </c>
       <c r="G19" s="4" t="n">
         <f aca="false">SUM(D19:E19)</f>
@@ -4722,11 +4722,11 @@
       </c>
       <c r="H19" s="4" t="n">
         <f aca="false">D19+F19</f>
-        <v>190.684373805124</v>
+        <v>193.14151955144</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">E19+F19</f>
-        <v>18.1843738051236</v>
+        <v>20.6415195514399</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="C20" s="4" t="n">
         <f aca="false">SUM(D20:F20)</f>
-        <v>182.751768760653</v>
+        <v>184.861827360311</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">100 + 5 * A20</f>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="F20" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-7.24823123934719</v>
+        <v>-5.13817263968937</v>
       </c>
       <c r="G20" s="4" t="n">
         <f aca="false">SUM(D20:E20)</f>
@@ -4759,11 +4759,11 @@
       </c>
       <c r="H20" s="4" t="n">
         <f aca="false">D20+F20</f>
-        <v>182.751768760653</v>
+        <v>184.861827360311</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">E20+F20</f>
-        <v>-7.24823123934718</v>
+        <v>-5.13817263968937</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C21" s="4" t="n">
         <f aca="false">SUM(D21:F21)</f>
-        <v>180.147871868479</v>
+        <v>178.216256471235</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">100 + 5 * A21</f>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="F21" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-2.35212813152133</v>
+        <v>-4.28374352876482</v>
       </c>
       <c r="G21" s="4" t="n">
         <f aca="false">SUM(D21:E21)</f>
@@ -4796,11 +4796,11 @@
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">D21+F21</f>
-        <v>192.647871868479</v>
+        <v>190.716256471235</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">E21+F21</f>
-        <v>-14.8521281315213</v>
+        <v>-16.7837435287648</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="C22" s="4" t="n">
         <f aca="false">SUM(D22:F22)</f>
-        <v>183.54746829021</v>
+        <v>187.549606274257</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">100 + 5 * A22</f>
@@ -4825,7 +4825,7 @@
       </c>
       <c r="F22" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>5.1981033848207</v>
+        <v>9.2002413688681</v>
       </c>
       <c r="G22" s="4" t="n">
         <f aca="false">SUM(D22:E22)</f>
@@ -4833,11 +4833,11 @@
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">D22+F22</f>
-        <v>205.198103384821</v>
+        <v>209.200241368868</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">E22+F22</f>
-        <v>-16.4525317097903</v>
+        <v>-12.4503937257429</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="C23" s="4" t="n">
         <f aca="false">SUM(D23:F23)</f>
-        <v>182.461293010663</v>
+        <v>181.908889679267</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">100 + 5 * A23</f>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="F23" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>2.46129301066341</v>
+        <v>1.90888967926695</v>
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">SUM(D23:E23)</f>
@@ -4870,11 +4870,11 @@
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">D23+F23</f>
-        <v>207.461293010663</v>
+        <v>206.908889679267</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">E23+F23</f>
-        <v>-22.5387069893366</v>
+        <v>-23.0911103207331</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="C24" s="4" t="n">
         <f aca="false">SUM(D24:F24)</f>
-        <v>185.399546940557</v>
+        <v>194.132749803166</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">100 + 5 * A24</f>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="F24" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-2.94981796483168</v>
+        <v>5.78338489777704</v>
       </c>
       <c r="G24" s="4" t="n">
         <f aca="false">SUM(D24:E24)</f>
@@ -4907,11 +4907,11 @@
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">D24+F24</f>
-        <v>207.050182035168</v>
+        <v>215.783384897777</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">E24+F24</f>
-        <v>-24.6004530594427</v>
+        <v>-15.867250196834</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,7 +4924,7 @@
       </c>
       <c r="C25" s="4" t="n">
         <f aca="false">SUM(D25:F25)</f>
-        <v>208.094040510222</v>
+        <v>199.490245731804</v>
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">100 + 5 * A25</f>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="F25" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>5.59404051022163</v>
+        <v>-3.00975426819553</v>
       </c>
       <c r="G25" s="4" t="n">
         <f aca="false">SUM(D25:E25)</f>
@@ -4944,11 +4944,11 @@
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">D25+F25</f>
-        <v>220.594040510222</v>
+        <v>211.990245731804</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">E25+F25</f>
-        <v>-6.9059594897784</v>
+        <v>-15.5097542681955</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="C26" s="4" t="n">
         <f aca="false">SUM(D26:F26)</f>
-        <v>219.091406921428</v>
+        <v>222.183643007917</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">100 + 5 * A26</f>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="F26" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-0.908593078572125</v>
+        <v>2.18364300791708</v>
       </c>
       <c r="G26" s="4" t="n">
         <f aca="false">SUM(D26:E26)</f>
@@ -4981,11 +4981,11 @@
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">D26+F26</f>
-        <v>219.091406921428</v>
+        <v>222.183643007917</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">E26+F26</f>
-        <v>-0.908593078572137</v>
+        <v>2.18364300791707</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="C27" s="4" t="n">
         <f aca="false">SUM(D27:F27)</f>
-        <v>236.727788360033</v>
+        <v>232.004251588127</v>
       </c>
       <c r="D27" s="1" t="n">
         <f aca="false">100 + 5 * A27</f>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="F27" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-0.772211639967473</v>
+        <v>-5.49574841187316</v>
       </c>
       <c r="G27" s="4" t="n">
         <f aca="false">SUM(D27:E27)</f>
@@ -5018,11 +5018,11 @@
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">D27+F27</f>
-        <v>224.227788360033</v>
+        <v>219.504251588127</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">E27+F27</f>
-        <v>11.7277883600325</v>
+        <v>7.00425158812684</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="C28" s="4" t="n">
         <f aca="false">SUM(D28:F28)</f>
-        <v>257.305112545475</v>
+        <v>252.584190167064</v>
       </c>
       <c r="D28" s="1" t="n">
         <f aca="false">100 + 5 * A28</f>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="F28" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>5.6544774508643</v>
+        <v>0.933555072453185</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">SUM(D28:E28)</f>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">D28+F28</f>
-        <v>235.654477450864</v>
+        <v>230.933555072453</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">E28+F28</f>
-        <v>27.3051125454753</v>
+        <v>22.5841901670642</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C29" s="4" t="n">
         <f aca="false">SUM(D29:F29)</f>
-        <v>251.265868681502</v>
+        <v>251.970313795975</v>
       </c>
       <c r="D29" s="1" t="n">
         <f aca="false">100 + 5 * A29</f>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="F29" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-8.73413131849772</v>
+        <v>-8.02968620402496</v>
       </c>
       <c r="G29" s="4" t="n">
         <f aca="false">SUM(D29:E29)</f>
@@ -5092,11 +5092,11 @@
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">D29+F29</f>
-        <v>226.265868681502</v>
+        <v>226.970313795975</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">E29+F29</f>
-        <v>16.2658686815023</v>
+        <v>16.970313795975</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="C30" s="4" t="n">
         <f aca="false">SUM(D30:F30)</f>
-        <v>265.05720151914</v>
+        <v>269.750707389976</v>
       </c>
       <c r="D30" s="1" t="n">
         <f aca="false">100 + 5 * A30</f>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="F30" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>3.40656642452907</v>
+        <v>8.10007229536498</v>
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">SUM(D30:E30)</f>
@@ -5129,11 +5129,11 @@
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">D30+F30</f>
-        <v>243.406566424529</v>
+        <v>248.100072295365</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">E30+F30</f>
-        <v>25.0572015191401</v>
+        <v>29.750707389976</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="C31" s="4" t="n">
         <f aca="false">SUM(D31:F31)</f>
-        <v>265.07644250969</v>
+        <v>263.892202522913</v>
       </c>
       <c r="D31" s="1" t="n">
         <f aca="false">100 + 5 * A31</f>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="F31" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>7.57644250969036</v>
+        <v>6.39220252291299</v>
       </c>
       <c r="G31" s="4" t="n">
         <f aca="false">SUM(D31:E31)</f>
@@ -5166,11 +5166,11 @@
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">D31+F31</f>
-        <v>252.57644250969</v>
+        <v>251.392202522913</v>
       </c>
       <c r="I31" s="4" t="n">
         <f aca="false">E31+F31</f>
-        <v>20.0764425096904</v>
+        <v>18.892202522913</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="C32" s="4" t="n">
         <f aca="false">SUM(D32:F32)</f>
-        <v>246.297727149798</v>
+        <v>244.62750897271</v>
       </c>
       <c r="D32" s="1" t="n">
         <f aca="false">100 + 5 * A32</f>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="F32" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-3.70227285020172</v>
+        <v>-5.3724910272899</v>
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">SUM(D32:E32)</f>
@@ -5203,11 +5203,11 @@
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">D32+F32</f>
-        <v>246.297727149798</v>
+        <v>244.62750897271</v>
       </c>
       <c r="I32" s="4" t="n">
         <f aca="false">E32+F32</f>
-        <v>-3.70227285020166</v>
+        <v>-5.37249102728984</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="C33" s="4" t="n">
         <f aca="false">SUM(D33:F33)</f>
-        <v>241.203953985357</v>
+        <v>239.97473233374</v>
       </c>
       <c r="D33" s="1" t="n">
         <f aca="false">100 + 5 * A33</f>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="F33" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-1.29604601464321</v>
+        <v>-2.52526766625993</v>
       </c>
       <c r="G33" s="4" t="n">
         <f aca="false">SUM(D33:E33)</f>
@@ -5240,11 +5240,11 @@
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">D33+F33</f>
-        <v>253.703953985357</v>
+        <v>252.47473233374</v>
       </c>
       <c r="I33" s="4" t="n">
         <f aca="false">E33+F33</f>
-        <v>-13.7960460146432</v>
+        <v>-15.0252676662599</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="C34" s="4" t="n">
         <f aca="false">SUM(D34:F34)</f>
-        <v>237.888763514531</v>
+        <v>231.495863082827</v>
       </c>
       <c r="D34" s="1" t="n">
         <f aca="false">100 + 5 * A34</f>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="F34" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-0.460601390858319</v>
+        <v>-6.85350182256241</v>
       </c>
       <c r="G34" s="4" t="n">
         <f aca="false">SUM(D34:E34)</f>
@@ -5277,11 +5277,11 @@
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">D34+F34</f>
-        <v>259.539398609142</v>
+        <v>253.146498177438</v>
       </c>
       <c r="I34" s="4" t="n">
         <f aca="false">E34+F34</f>
-        <v>-22.1112364854693</v>
+        <v>-28.5041369171733</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5294,7 +5294,7 @@
       </c>
       <c r="C35" s="4" t="n">
         <f aca="false">SUM(D35:F35)</f>
-        <v>234.85713540405</v>
+        <v>240.467021138167</v>
       </c>
       <c r="D35" s="1" t="n">
         <f aca="false">100 + 5 * A35</f>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="F35" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-5.14286459594974</v>
+        <v>0.467021138166629</v>
       </c>
       <c r="G35" s="4" t="n">
         <f aca="false">SUM(D35:E35)</f>
@@ -5314,11 +5314,11 @@
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">D35+F35</f>
-        <v>259.85713540405</v>
+        <v>265.467021138167</v>
       </c>
       <c r="I35" s="4" t="n">
         <f aca="false">E35+F35</f>
-        <v>-30.1428645959497</v>
+        <v>-24.5329788618334</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="C36" s="4" t="n">
         <f aca="false">SUM(D36:F36)</f>
-        <v>246.458389341027</v>
+        <v>257.711623910469</v>
       </c>
       <c r="D36" s="1" t="n">
         <f aca="false">100 + 5 * A36</f>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="F36" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>-1.89097556436162</v>
+        <v>9.36225900508013</v>
       </c>
       <c r="G36" s="4" t="n">
         <f aca="false">SUM(D36:E36)</f>
@@ -5351,11 +5351,11 @@
       </c>
       <c r="H36" s="4" t="n">
         <f aca="false">D36+F36</f>
-        <v>268.109024435638</v>
+        <v>279.36225900508</v>
       </c>
       <c r="I36" s="4" t="n">
         <f aca="false">E36+F36</f>
-        <v>-23.5416106589726</v>
+        <v>-12.2883760895309</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="C37" s="4" t="n">
         <f aca="false">SUM(D37:F37)</f>
-        <v>270.562142201171</v>
+        <v>268.81233064033</v>
       </c>
       <c r="D37" s="1" t="n">
         <f aca="false">100 + 5 * A37</f>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="F37" s="4" t="n">
         <f aca="true">-10+20*RAND()</f>
-        <v>8.06214220117085</v>
+        <v>6.31233064032971</v>
       </c>
       <c r="G37" s="4" t="n">
         <f aca="false">SUM(D37:E37)</f>
@@ -5388,11 +5388,11 @@
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">D37+F37</f>
-        <v>283.062142201171</v>
+        <v>281.31233064033</v>
       </c>
       <c r="I37" s="4" t="n">
         <f aca="false">E37+F37</f>
-        <v>-4.43785779882916</v>
+        <v>-6.1876693596703</v>
       </c>
     </row>
   </sheetData>
@@ -5414,10 +5414,10 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="E52" activeCellId="0" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="E2" s="4" t="n">
         <f aca="false">F2+H2+I2+J2+M2</f>
-        <v>99.4657872075789</v>
+        <v>109.380153106873</v>
       </c>
       <c r="F2" s="1" t="n">
         <f aca="false">B2</f>
@@ -5495,11 +5495,11 @@
       </c>
       <c r="J2" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-0.534212792421116</v>
+        <v>9.38015310687311</v>
       </c>
       <c r="K2" s="8" t="n">
         <f aca="false">H2+I2+J2</f>
-        <v>-0.534212792421116</v>
+        <v>9.38015310687311</v>
       </c>
       <c r="L2" s="8" t="n">
         <f aca="false">F2+H2+I2</f>
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E3" s="4" t="n">
         <f aca="false">F3+H3+I3+J3+M3</f>
-        <v>137.369072574898</v>
+        <v>167.512402063999</v>
       </c>
       <c r="F3" s="1" t="n">
         <f aca="false">F2+(C3-C2)*G3</f>
@@ -5546,11 +5546,11 @@
       </c>
       <c r="J3" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-11.6520577510056</v>
+        <v>18.4912717380962</v>
       </c>
       <c r="K3" s="8" t="n">
         <f aca="false">H3+I3+J3</f>
-        <v>27.3690725748975</v>
+        <v>57.5124020639992</v>
       </c>
       <c r="L3" s="8" t="n">
         <f aca="false">F3+H3+I3</f>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="E4" s="4" t="n">
         <f aca="false">F4+H4+I4+J4+M4</f>
-        <v>167.494104520948</v>
+        <v>146.70096720257</v>
       </c>
       <c r="F4" s="1" t="n">
         <f aca="false">F3+(C4-C3)*G4</f>
@@ -5597,11 +5597,11 @@
       </c>
       <c r="J4" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>1.09738332372131</v>
+        <v>-19.6957539946568</v>
       </c>
       <c r="K4" s="8" t="n">
         <f aca="false">H4+I4+J4</f>
-        <v>47.4941045209483</v>
+        <v>26.7009672025701</v>
       </c>
       <c r="L4" s="8" t="n">
         <f aca="false">F4+H4+I4</f>
@@ -5627,7 +5627,7 @@
       </c>
       <c r="E5" s="4" t="n">
         <f aca="false">F5+H5+I5+J5+M5</f>
-        <v>150.289111802665</v>
+        <v>158.695476847721</v>
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">F4+(C5-C4)*G5</f>
@@ -5646,11 +5646,11 @@
       </c>
       <c r="J5" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-7.95518315148584</v>
+        <v>0.451181893570841</v>
       </c>
       <c r="K5" s="8" t="n">
         <f aca="false">H5+I5+J5</f>
-        <v>20.2891118026647</v>
+        <v>28.6954768477214</v>
       </c>
       <c r="L5" s="8" t="n">
         <f aca="false">F5+H5+I5</f>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E6" s="4" t="n">
         <f aca="false">F6+H6+I6+J6+M6</f>
-        <v>152.708701760029</v>
+        <v>144.790288454348</v>
       </c>
       <c r="F6" s="1" t="n">
         <f aca="false">F5+(C6-C5)*G6</f>
@@ -5689,15 +5689,15 @@
       </c>
       <c r="J6" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-2.91118406544575</v>
+        <v>-10.8295973711262</v>
       </c>
       <c r="K6" s="8" t="n">
         <f aca="false">H6+I6+J6</f>
-        <v>12.7087017600287</v>
+        <v>4.79028845434831</v>
       </c>
       <c r="L6" s="8" t="n">
         <f aca="false">F6+H6+I6</f>
-        <v>155.619885825474</v>
+        <v>155.619885825475</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E7" s="4" t="n">
         <f aca="false">F7+H7+I7+J7+M7</f>
-        <v>173.391219407932</v>
+        <v>188.94638183435</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">F6+(C7-C6)*G7</f>
@@ -5734,11 +5734,11 @@
       </c>
       <c r="J7" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>3.39121940793162</v>
+        <v>18.9463818343497</v>
       </c>
       <c r="K7" s="8" t="n">
         <f aca="false">H7+I7+J7</f>
-        <v>23.3912194079316</v>
+        <v>38.9463818343497</v>
       </c>
       <c r="L7" s="8" t="n">
         <f aca="false">F7+H7+I7</f>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="E8" s="4" t="n">
         <f aca="false">F8+H8+I8+J8+M8</f>
-        <v>194.791811208742</v>
+        <v>164.277628741574</v>
       </c>
       <c r="F8" s="1" t="n">
         <f aca="false">F7+(C8-C7)*G8</f>
@@ -5779,11 +5779,11 @@
       </c>
       <c r="J8" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>15.7706808828387</v>
+        <v>-14.7435015843294</v>
       </c>
       <c r="K8" s="8" t="n">
         <f aca="false">H8+I8+J8</f>
-        <v>34.7918112087418</v>
+        <v>4.27762874157368</v>
       </c>
       <c r="L8" s="8" t="n">
         <f aca="false">F8+H8+I8</f>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">F9+H9+I9+J9+M9</f>
-        <v>176.746357605688</v>
+        <v>162.965133407581</v>
       </c>
       <c r="F9" s="1" t="n">
         <f aca="false">F8+(C9-C8)*G9</f>
@@ -5824,11 +5824,11 @@
       </c>
       <c r="J9" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>14.9906525598381</v>
+        <v>1.20942836173103</v>
       </c>
       <c r="K9" s="8" t="n">
         <f aca="false">H9+I9+J9</f>
-        <v>6.74635760568755</v>
+        <v>-7.03486659241951</v>
       </c>
       <c r="L9" s="8" t="n">
         <f aca="false">F9+H9+I9</f>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="E10" s="4" t="n">
         <f aca="false">F10+H10+I10+J10+M10</f>
-        <v>126.508921280432</v>
+        <v>147.599123085359</v>
       </c>
       <c r="F10" s="1" t="n">
         <f aca="false">F9+(C10-C9)*G10</f>
@@ -5869,11 +5869,11 @@
       </c>
       <c r="J10" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-7.09435752234054</v>
+        <v>13.9958442825859</v>
       </c>
       <c r="K10" s="8" t="n">
         <f aca="false">H10+I10+J10</f>
-        <v>-53.4910787195675</v>
+        <v>-32.400876914641</v>
       </c>
       <c r="L10" s="8" t="n">
         <f aca="false">F10+H10+I10</f>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="E11" s="4" t="n">
         <f aca="false">F11+H11+I11+J11+M11</f>
-        <v>123.364761244498</v>
+        <v>111.977104469036</v>
       </c>
       <c r="F11" s="1" t="n">
         <f aca="false">F10+(C11-C10)*G11</f>
@@ -5914,11 +5914,11 @@
       </c>
       <c r="J11" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-7.61410842959882</v>
+        <v>-19.001765205061</v>
       </c>
       <c r="K11" s="8" t="n">
         <f aca="false">H11+I11+J11</f>
-        <v>-66.6352387555019</v>
+        <v>-78.0228955309641</v>
       </c>
       <c r="L11" s="8" t="n">
         <f aca="false">F11+H11+I11</f>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="E12" s="4" t="n">
         <f aca="false">F12+H12+I12+J12+M12</f>
-        <v>161.597548625751</v>
+        <v>146.068998998529</v>
       </c>
       <c r="F12" s="1" t="n">
         <f aca="false">F11+(C12-C11)*G12</f>
@@ -5959,15 +5959,15 @@
       </c>
       <c r="J12" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-3.76143522287149</v>
+        <v>-19.2899848500936</v>
       </c>
       <c r="K12" s="8" t="n">
         <f aca="false">H12+I12+J12</f>
-        <v>-38.402451374249</v>
+        <v>-53.9310010014711</v>
       </c>
       <c r="L12" s="8" t="n">
         <f aca="false">F12+H12+I12</f>
-        <v>165.358983848622</v>
+        <v>165.358983848623</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>0</v>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="E13" s="4" t="n">
         <f aca="false">F13+H13+I13+J13+M13</f>
-        <v>194.315207914736</v>
+        <v>190.852219252427</v>
       </c>
       <c r="F13" s="1" t="n">
         <f aca="false">F12+(C13-C12)*G13</f>
@@ -6004,11 +6004,11 @@
       </c>
       <c r="J13" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-14.705922411167</v>
+        <v>-18.1689110734762</v>
       </c>
       <c r="K13" s="8" t="n">
         <f aca="false">H13+I13+J13</f>
-        <v>-15.684792085264</v>
+        <v>-19.1477807475731</v>
       </c>
       <c r="L13" s="8" t="n">
         <f aca="false">F13+H13+I13</f>
@@ -6030,7 +6030,7 @@
       </c>
       <c r="E14" s="4" t="n">
         <f aca="false">F14+H14+I14+J14+M14</f>
-        <v>216.792104118668</v>
+        <v>241.04107077597</v>
       </c>
       <c r="F14" s="1" t="n">
         <f aca="false">F13+(C14-C13)*G14</f>
@@ -6049,11 +6049,11 @@
       </c>
       <c r="J14" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-14.9636009271815</v>
+        <v>9.28536573012045</v>
       </c>
       <c r="K14" s="8" t="n">
         <f aca="false">H14+I14+J14</f>
-        <v>-3.20789588133208</v>
+        <v>21.0410707759699</v>
       </c>
       <c r="L14" s="8" t="n">
         <f aca="false">F14+H14+I14</f>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="E15" s="4" t="n">
         <f aca="false">F15+H15+I15+J15+M15</f>
-        <v>235.103185559545</v>
+        <v>244.183744635757</v>
       </c>
       <c r="F15" s="1" t="n">
         <f aca="false">F14+(C15-C14)*G15</f>
@@ -6094,11 +6094,11 @@
       </c>
       <c r="J15" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-3.14110939460529</v>
+        <v>5.93944968160671</v>
       </c>
       <c r="K15" s="8" t="n">
         <f aca="false">H15+I15+J15</f>
-        <v>5.10318555954526</v>
+        <v>14.1837446357573</v>
       </c>
       <c r="L15" s="8" t="n">
         <f aca="false">F15+H15+I15</f>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="E16" s="4" t="n">
         <f aca="false">F16+H16+I16+J16+M16</f>
-        <v>265.539928792981</v>
+        <v>273.348170114909</v>
       </c>
       <c r="F16" s="1" t="n">
         <f aca="false">F15+(C16-C15)*G16</f>
@@ -6139,11 +6139,11 @@
       </c>
       <c r="J16" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>9.92004296750695</v>
+        <v>17.7282842894342</v>
       </c>
       <c r="K16" s="8" t="n">
         <f aca="false">H16+I16+J16</f>
-        <v>25.5399287929814</v>
+        <v>33.3481701149086</v>
       </c>
       <c r="L16" s="8" t="n">
         <f aca="false">F16+H16+I16</f>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="E17" s="4" t="n">
         <f aca="false">F17+H17+I17+J17+M17</f>
-        <v>302.211238139128</v>
+        <v>422.231372112754</v>
       </c>
       <c r="F17" s="1" t="n">
         <f aca="false">F16+(C17-C16)*G17</f>
@@ -6184,18 +6184,18 @@
       </c>
       <c r="J17" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>12.2112381391276</v>
+        <v>12.2313721127535</v>
       </c>
       <c r="K17" s="8" t="n">
         <f aca="false">H17+I17+J17</f>
-        <v>52.2112381391275</v>
+        <v>52.2313721127535</v>
       </c>
       <c r="L17" s="8" t="n">
         <f aca="false">F17+H17+I17</f>
         <v>290</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="E18" s="4" t="n">
         <f aca="false">F18+H18+I18+J18+M18</f>
-        <v>299.230270227004</v>
+        <v>298.815892485916</v>
       </c>
       <c r="F18" s="1" t="n">
         <f aca="false">F17+(C18-C17)*G18</f>
@@ -6229,11 +6229,11 @@
       </c>
       <c r="J18" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-14.4318762502771</v>
+        <v>-14.8462539913651</v>
       </c>
       <c r="K18" s="8" t="n">
         <f aca="false">H18+I18+J18</f>
-        <v>39.2302702270035</v>
+        <v>38.8158924859156</v>
       </c>
       <c r="L18" s="8" t="n">
         <f aca="false">F18+H18+I18</f>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="E19" s="4" t="n">
         <f aca="false">F19+H19+I19+J19+M19</f>
-        <v>307.636996711646</v>
+        <v>293.043936450145</v>
       </c>
       <c r="F19" s="1" t="n">
         <f aca="false">F18+(C19-C18)*G19</f>
@@ -6274,11 +6274,11 @@
       </c>
       <c r="J19" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>5.88129166579667</v>
+        <v>-8.71176859570482</v>
       </c>
       <c r="K19" s="8" t="n">
         <f aca="false">H19+I19+J19</f>
-        <v>37.6369967116461</v>
+        <v>23.0439364501447</v>
       </c>
       <c r="L19" s="8" t="n">
         <f aca="false">F19+H19+I19</f>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="E20" s="4" t="n">
         <f aca="false">F20+H20+I20+J20+M20</f>
-        <v>271.85499855054</v>
+        <v>252.865613058491</v>
       </c>
       <c r="F20" s="1" t="n">
         <f aca="false">F19+(C20-C19)*G20</f>
@@ -6319,11 +6319,11 @@
       </c>
       <c r="J20" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>3.61070359638945</v>
+        <v>-15.3786818956597</v>
       </c>
       <c r="K20" s="8" t="n">
         <f aca="false">H20+I20+J20</f>
-        <v>-8.14500144945999</v>
+        <v>-27.1343869415091</v>
       </c>
       <c r="L20" s="8" t="n">
         <f aca="false">F20+H20+I20</f>
@@ -6345,14 +6345,14 @@
       </c>
       <c r="E21" s="4" t="n">
         <f aca="false">F21+H21+I21+J21+M21</f>
-        <v>222.491558450558</v>
+        <v>249.123578852206</v>
       </c>
       <c r="F21" s="1" t="n">
         <f aca="false">F20+(C21-C20)*G21</f>
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C21/5)</f>
@@ -6364,15 +6364,15 @@
       </c>
       <c r="J21" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-18.4873112235391</v>
+        <v>-1.85529082189139</v>
       </c>
       <c r="K21" s="8" t="n">
         <f aca="false">H21+I21+J21</f>
-        <v>-57.5084415494421</v>
+        <v>-40.8764211477945</v>
       </c>
       <c r="L21" s="8" t="n">
         <f aca="false">F21+H21+I21</f>
-        <v>240.978869674097</v>
+        <v>250.978869674097</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
       </c>
       <c r="E22" s="4" t="n">
         <f aca="false">F22+H22+I22+J22+M22</f>
-        <v>245.616562977765</v>
+        <v>269.054390161551</v>
       </c>
       <c r="F22" s="1" t="n">
         <f aca="false">F21+(C22-C21)*G22</f>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="G22" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C22/5)</f>
@@ -6409,15 +6409,15 @@
       </c>
       <c r="J22" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>0.257579129142769</v>
+        <v>3.6954063129286</v>
       </c>
       <c r="K22" s="8" t="n">
         <f aca="false">H22+I22+J22</f>
-        <v>-34.3834370222348</v>
+        <v>-30.945609838449</v>
       </c>
       <c r="L22" s="8" t="n">
         <f aca="false">F22+H22+I22</f>
-        <v>245.358983848622</v>
+        <v>265.358983848622</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>0</v>
@@ -6435,14 +6435,14 @@
       </c>
       <c r="E23" s="4" t="n">
         <f aca="false">F23+H23+I23+J23+M23</f>
-        <v>262.484981866219</v>
+        <v>282.121484111924</v>
       </c>
       <c r="F23" s="1" t="n">
         <f aca="false">F22+(C23-C22)*G23</f>
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="G23" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H23" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C23/5)</f>
@@ -6454,15 +6454,15 @@
       </c>
       <c r="J23" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>3.46385154031623</v>
+        <v>-6.89964621397877</v>
       </c>
       <c r="K23" s="8" t="n">
         <f aca="false">H23+I23+J23</f>
-        <v>-17.5150181337807</v>
+        <v>-27.8785158880757</v>
       </c>
       <c r="L23" s="8" t="n">
         <f aca="false">F23+H23+I23</f>
-        <v>259.021130325903</v>
+        <v>289.021130325903</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>0</v>
@@ -6480,14 +6480,14 @@
       </c>
       <c r="E24" s="4" t="n">
         <f aca="false">F24+H24+I24+J24+M24</f>
-        <v>255.816427763289</v>
+        <v>293.089053633412</v>
       </c>
       <c r="F24" s="1" t="n">
         <f aca="false">F23+(C24-C23)*G24</f>
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G24" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H24" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C24/5)</f>
@@ -6499,15 +6499,15 @@
       </c>
       <c r="J24" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-1.29826113118313</v>
+        <v>-4.02563526105956</v>
       </c>
       <c r="K24" s="8" t="n">
         <f aca="false">H24+I24+J24</f>
-        <v>-24.1835722367112</v>
+        <v>-26.9109463665876</v>
       </c>
       <c r="L24" s="8" t="n">
         <f aca="false">F24+H24+I24</f>
-        <v>257.114688894472</v>
+        <v>297.114688894472</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>0</v>
@@ -6523,14 +6523,14 @@
       </c>
       <c r="E25" s="4" t="n">
         <f aca="false">F25+H25+I25+J25+M25</f>
-        <v>238.255745652872</v>
+        <v>314.59685713136</v>
       </c>
       <c r="F25" s="1" t="n">
         <f aca="false">F24+(C25-C24)*G25</f>
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="G25" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C25/5)</f>
@@ -6542,15 +6542,15 @@
       </c>
       <c r="J25" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-9.98854930127853</v>
+        <v>16.3525621772092</v>
       </c>
       <c r="K25" s="8" t="n">
         <f aca="false">H25+I25+J25</f>
-        <v>-41.744254347128</v>
+        <v>-15.4031428686404</v>
       </c>
       <c r="L25" s="8" t="n">
         <f aca="false">F25+H25+I25</f>
-        <v>248.244294954151</v>
+        <v>298.24429495415</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>0</v>
@@ -6566,14 +6566,14 @@
       </c>
       <c r="E26" s="4" t="n">
         <f aca="false">F26+H26+I26+J26+M26</f>
-        <v>256.162257823831</v>
+        <v>321.904715509747</v>
       </c>
       <c r="F26" s="1" t="n">
         <f aca="false">F25+(C26-C25)*G26</f>
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="G26" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C26/5)</f>
@@ -6585,15 +6585,15 @@
       </c>
       <c r="J26" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-4.81661185026603</v>
+        <v>0.925845835650438</v>
       </c>
       <c r="K26" s="8" t="n">
         <f aca="false">H26+I26+J26</f>
-        <v>-23.8377421761691</v>
+        <v>-18.0952844902527</v>
       </c>
       <c r="L26" s="8" t="n">
         <f aca="false">F26+H26+I26</f>
-        <v>260.978869674097</v>
+        <v>320.978869674097</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>0</v>
@@ -6609,14 +6609,14 @@
       </c>
       <c r="E27" s="4" t="n">
         <f aca="false">F27+H27+I27+J27+M27</f>
-        <v>315.85101750552</v>
+        <v>383.104722946638</v>
       </c>
       <c r="F27" s="1" t="n">
         <f aca="false">F26+(C27-C26)*G27</f>
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="G27" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C27/5)</f>
@@ -6628,15 +6628,15 @@
       </c>
       <c r="J27" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>15.8510175055197</v>
+        <v>13.1047229466383</v>
       </c>
       <c r="K27" s="8" t="n">
         <f aca="false">H27+I27+J27</f>
-        <v>35.8510175055197</v>
+        <v>33.1047229466383</v>
       </c>
       <c r="L27" s="8" t="n">
         <f aca="false">F27+H27+I27</f>
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>0</v>
@@ -6652,14 +6652,14 @@
       </c>
       <c r="E28" s="4" t="n">
         <f aca="false">F28+H28+I28+J28+M28</f>
-        <v>335.512779185105</v>
+        <v>407.253100239186</v>
       </c>
       <c r="F28" s="1" t="n">
         <f aca="false">F27+(C28-C27)*G28</f>
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="G28" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H28" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C28/5)</f>
@@ -6671,15 +6671,15 @@
       </c>
       <c r="J28" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>1.85063270782442</v>
+        <v>-6.40904623809472</v>
       </c>
       <c r="K28" s="8" t="n">
         <f aca="false">H28+I28+J28</f>
-        <v>55.512779185105</v>
+        <v>47.253100239186</v>
       </c>
       <c r="L28" s="8" t="n">
         <f aca="false">F28+H28+I28</f>
-        <v>333.662146477281</v>
+        <v>413.662146477281</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>0</v>
@@ -6695,14 +6695,14 @@
       </c>
       <c r="E29" s="4" t="n">
         <f aca="false">F29+H29+I29+J29+M29</f>
-        <v>346.267692615434</v>
+        <v>435.315386855425</v>
       </c>
       <c r="F29" s="1" t="n">
         <f aca="false">F28+(C29-C28)*G29</f>
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="G29" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H29" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C29/5)</f>
@@ -6714,15 +6714,15 @@
       </c>
       <c r="J29" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>14.5119875695846</v>
+        <v>13.5596818095756</v>
       </c>
       <c r="K29" s="8" t="n">
         <f aca="false">H29+I29+J29</f>
-        <v>66.2676926154341</v>
+        <v>65.3153868554251</v>
       </c>
       <c r="L29" s="8" t="n">
         <f aca="false">F29+H29+I29</f>
-        <v>331.75570504585</v>
+        <v>421.75570504585</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>0</v>
@@ -6738,14 +6738,14 @@
       </c>
       <c r="E30" s="4" t="n">
         <f aca="false">F30+H30+I30+J30+M30</f>
-        <v>310.995465760233</v>
+        <v>385.897714818162</v>
       </c>
       <c r="F30" s="1" t="n">
         <f aca="false">F29+(C30-C29)*G30</f>
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="G30" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C30/5)</f>
@@ -6757,15 +6757,15 @@
       </c>
       <c r="J30" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>8.11015465470473</v>
+        <v>-16.9875962873662</v>
       </c>
       <c r="K30" s="8" t="n">
         <f aca="false">H30+I30+J30</f>
-        <v>30.9954657602329</v>
+        <v>5.89771481816197</v>
       </c>
       <c r="L30" s="8" t="n">
         <f aca="false">F30+H30+I30</f>
-        <v>302.885311105528</v>
+        <v>402.885311105528</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>0</v>
@@ -6781,14 +6781,14 @@
       </c>
       <c r="E31" s="4" t="n">
         <f aca="false">F31+H31+I31+J31+M31</f>
-        <v>282.810074204017</v>
+        <v>382.647008903997</v>
       </c>
       <c r="F31" s="1" t="n">
         <f aca="false">F30+(C31-C30)*G31</f>
-        <v>280</v>
+        <v>390</v>
       </c>
       <c r="G31" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H31" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C31/5)</f>
@@ -6800,15 +6800,15 @@
       </c>
       <c r="J31" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>1.83120452992028</v>
+        <v>-8.33186077010027</v>
       </c>
       <c r="K31" s="8" t="n">
         <f aca="false">H31+I31+J31</f>
-        <v>2.8100742040172</v>
+        <v>-7.35299109600335</v>
       </c>
       <c r="L31" s="8" t="n">
         <f aca="false">F31+H31+I31</f>
-        <v>280.978869674097</v>
+        <v>390.978869674097</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>0</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="E32" s="4" t="n">
         <f aca="false">F32+H32+I32+J32+M32</f>
-        <v>285.638492467512</v>
+        <v>388.859534559539</v>
       </c>
       <c r="F32" s="1" t="n">
         <f aca="false">F31+(C32-C31)*G32</f>
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="G32" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C32/5)</f>
@@ -6843,15 +6843,15 @@
       </c>
       <c r="J32" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>5.63849246751165</v>
+        <v>-11.1404654404608</v>
       </c>
       <c r="K32" s="8" t="n">
         <f aca="false">H32+I32+J32</f>
-        <v>5.63849246751172</v>
+        <v>-11.1404654404607</v>
       </c>
       <c r="L32" s="8" t="n">
         <f aca="false">F32+H32+I32</f>
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>0</v>
@@ -6867,14 +6867,14 @@
       </c>
       <c r="E33" s="4" t="n">
         <f aca="false">F33+H33+I33+J33+M33</f>
-        <v>297.793615540566</v>
+        <v>416.522390165783</v>
       </c>
       <c r="F33" s="1" t="n">
         <f aca="false">F32+(C33-C32)*G33</f>
-        <v>280</v>
+        <v>410</v>
       </c>
       <c r="G33" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H33" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C33/5)</f>
@@ -6886,15 +6886,15 @@
       </c>
       <c r="J33" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>18.7724852146633</v>
+        <v>7.5012598398794</v>
       </c>
       <c r="K33" s="8" t="n">
         <f aca="false">H33+I33+J33</f>
-        <v>17.7936155405664</v>
+        <v>6.52239016578247</v>
       </c>
       <c r="L33" s="8" t="n">
         <f aca="false">F33+H33+I33</f>
-        <v>279.021130325903</v>
+        <v>409.021130325903</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>0</v>
@@ -6910,14 +6910,14 @@
       </c>
       <c r="E34" s="4" t="n">
         <f aca="false">F34+H34+I34+J34+M34</f>
-        <v>254.204793142899</v>
+        <v>413.761945164266</v>
       </c>
       <c r="F34" s="1" t="n">
         <f aca="false">F33+(C34-C33)*G34</f>
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="G34" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H34" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C34/5)</f>
@@ -6929,15 +6929,15 @@
       </c>
       <c r="J34" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-2.90989575157306</v>
+        <v>16.6472562697936</v>
       </c>
       <c r="K34" s="8" t="n">
         <f aca="false">H34+I34+J34</f>
-        <v>-25.7952068571011</v>
+        <v>-6.23805483573437</v>
       </c>
       <c r="L34" s="8" t="n">
         <f aca="false">F34+H34+I34</f>
-        <v>257.114688894472</v>
+        <v>397.114688894472</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>0</v>
@@ -6953,14 +6953,14 @@
       </c>
       <c r="E35" s="4" t="n">
         <f aca="false">F35+H35+I35+J35+M35</f>
-        <v>232.032280981114</v>
+        <v>391.153966314596</v>
       </c>
       <c r="F35" s="1" t="n">
         <f aca="false">F34+(C35-C34)*G35</f>
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="G35" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H35" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C35/5)</f>
@@ -6972,15 +6972,15 @@
       </c>
       <c r="J35" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>3.78798602696308</v>
+        <v>12.909671360445</v>
       </c>
       <c r="K35" s="8" t="n">
         <f aca="false">H35+I35+J35</f>
-        <v>-47.9677190188864</v>
+        <v>-38.8460336854045</v>
       </c>
       <c r="L35" s="8" t="n">
         <f aca="false">F35+H35+I35</f>
-        <v>228.244294954151</v>
+        <v>378.244294954151</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>0</v>
@@ -6996,14 +6996,14 @@
       </c>
       <c r="E36" s="4" t="n">
         <f aca="false">F36+H36+I36+J36+M36</f>
-        <v>223.651366119518</v>
+        <v>374.77317766721</v>
       </c>
       <c r="F36" s="1" t="n">
         <f aca="false">F35+(C36-C35)*G36</f>
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="G36" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H36" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C36/5)</f>
@@ -7015,15 +7015,15 @@
       </c>
       <c r="J36" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>-2.68648740320171</v>
+        <v>-11.5646758555093</v>
       </c>
       <c r="K36" s="8" t="n">
         <f aca="false">H36+I36+J36</f>
-        <v>-56.3486338804823</v>
+        <v>-65.2268223327899</v>
       </c>
       <c r="L36" s="8" t="n">
         <f aca="false">F36+H36+I36</f>
-        <v>226.337853522719</v>
+        <v>386.337853522719</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>0</v>
@@ -7039,14 +7039,14 @@
       </c>
       <c r="E37" s="4" t="n">
         <f aca="false">F37+H37+I37+J37+M37</f>
-        <v>273.888172172126</v>
+        <v>414.520187046794</v>
       </c>
       <c r="F37" s="1" t="n">
         <f aca="false">F36+(C37-C36)*G37</f>
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="G37" s="9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H37" s="4" t="n">
         <f aca="false">$B$3*SIN(2*PI()*C37/5)</f>
@@ -7058,15 +7058,15 @@
       </c>
       <c r="J37" s="8" t="n">
         <f aca="true">-0.5*$B$5+$B$5*RAND()</f>
-        <v>13.888172172126</v>
+        <v>-15.4798129532059</v>
       </c>
       <c r="K37" s="8" t="n">
         <f aca="false">H37+I37+J37</f>
-        <v>-6.11182782787405</v>
+        <v>-35.4798129532059</v>
       </c>
       <c r="L37" s="8" t="n">
         <f aca="false">F37+H37+I37</f>
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>0</v>
@@ -7091,15 +7091,15 @@
       </c>
       <c r="E39" s="4" t="n">
         <f aca="false">AVERAGE(E$2:E$37)</f>
-        <v>233.219016985611</v>
+        <v>277.472080310558</v>
       </c>
       <c r="F39" s="4" t="n">
         <f aca="false">AVERAGE(F$2:F$37)</f>
-        <v>232.5</v>
+        <v>275</v>
       </c>
       <c r="G39" s="4" t="n">
         <f aca="false">AVERAGE(G$2:G$37)</f>
-        <v>5.14285714285714</v>
+        <v>10</v>
       </c>
       <c r="H39" s="4" t="n">
         <f aca="false">AVERAGE(H$2:H$37)</f>
@@ -7111,19 +7111,19 @@
       </c>
       <c r="J39" s="4" t="n">
         <f aca="false">AVERAGE(J$2:J$37)</f>
-        <v>0.719016985610709</v>
+        <v>-0.861253022774944</v>
       </c>
       <c r="K39" s="4" t="n">
         <f aca="false">AVERAGE(K$2:K$37)</f>
-        <v>0.719016985610715</v>
+        <v>-0.861253022774937</v>
       </c>
       <c r="L39" s="4" t="n">
         <f aca="false">AVERAGE(L$2:L$37)</f>
-        <v>232.5</v>
+        <v>275</v>
       </c>
       <c r="M39" s="4" t="n">
         <f aca="false">AVERAGE(M$2:M$37)</f>
-        <v>0</v>
+        <v>3.33333333333333</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,15 +7132,15 @@
       </c>
       <c r="E40" s="4" t="n">
         <f aca="false">STDEV(E$2:E$37)</f>
-        <v>65.561078837488</v>
+        <v>105.339469936835</v>
       </c>
       <c r="F40" s="4" t="n">
         <f aca="false">STDEV(F$2:F$37)</f>
-        <v>60.8687111741328</v>
+        <v>105.356537528527</v>
       </c>
       <c r="G40" s="4" t="n">
         <f aca="false">STDEV(G$2:G$37)</f>
-        <v>5.0709255283711</v>
+        <v>0</v>
       </c>
       <c r="H40" s="4" t="n">
         <f aca="false">STDEV(H$2:H$37)</f>
@@ -7152,19 +7152,19 @@
       </c>
       <c r="J40" s="4" t="n">
         <f aca="false">STDEV(J$2:J$37)</f>
-        <v>9.81439758299098</v>
+        <v>13.0550101567632</v>
       </c>
       <c r="K40" s="4" t="n">
         <f aca="false">STDEV(K$2:K$37)</f>
-        <v>35.7641718022128</v>
+        <v>35.3714339161366</v>
       </c>
       <c r="L40" s="4" t="n">
         <f aca="false">STDEV(L$2:L$37)</f>
-        <v>61.9128658980195</v>
+        <v>101.644586609742</v>
       </c>
       <c r="M40" s="4" t="n">
         <f aca="false">STDEV(M$2:M$37)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="E41" s="4" t="n">
         <f aca="false">MEDIAN(E$2:E$37)</f>
-        <v>241.936154315319</v>
+        <v>277.734827113417</v>
       </c>
       <c r="F41" s="4" t="n">
         <f aca="false">MEDIAN(F$2:F$37)</f>
@@ -7193,15 +7193,15 @@
       </c>
       <c r="J41" s="4" t="n">
         <f aca="false">MEDIAN(J$2:J$37)</f>
-        <v>0.67748122643204</v>
+        <v>-0.702054464160275</v>
       </c>
       <c r="K41" s="4" t="n">
         <f aca="false">MEDIAN(K$2:K$37)</f>
-        <v>3.95662988178123</v>
+        <v>-0.980213047080347</v>
       </c>
       <c r="L41" s="4" t="n">
         <f aca="false">MEDIAN(L$2:L$37)</f>
-        <v>246.801639401386</v>
+        <v>278.632712640027</v>
       </c>
       <c r="M41" s="4" t="n">
         <f aca="false">MEDIAN(M$2:M$37)</f>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="E42" s="4" t="n">
         <f aca="false">MIN(E2:E37)</f>
-        <v>99.4657872075789</v>
+        <v>109.380153106873</v>
       </c>
       <c r="F42" s="4" t="n">
         <f aca="false">MIN(F2:F37)</f>
@@ -7222,7 +7222,7 @@
       </c>
       <c r="G42" s="4" t="n">
         <f aca="false">MIN(G2:G37)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H42" s="4" t="n">
         <f aca="false">MIN(H2:H37)</f>
@@ -7234,11 +7234,11 @@
       </c>
       <c r="J42" s="4" t="n">
         <f aca="false">MIN(J2:J37)</f>
-        <v>-18.4873112235391</v>
+        <v>-19.6957539946568</v>
       </c>
       <c r="K42" s="4" t="n">
         <f aca="false">MIN(K2:K37)</f>
-        <v>-66.6352387555019</v>
+        <v>-78.0228955309641</v>
       </c>
       <c r="L42" s="4" t="n">
         <f aca="false">MIN(L2:L37)</f>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="E43" s="4" t="n">
         <f aca="false">QUARTILE(E$2:E$37,1)</f>
-        <v>175.907573056249</v>
+        <v>166.703708733393</v>
       </c>
       <c r="F43" s="4" t="n">
         <f aca="false">QUARTILE(F$2:F$37,1)</f>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="G43" s="4" t="n">
         <f aca="false">QUARTILE(G$2:G$37,1)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H43" s="4" t="n">
         <f aca="false">QUARTILE(H$2:H$37,1)</f>
@@ -7275,11 +7275,11 @@
       </c>
       <c r="J43" s="4" t="n">
         <f aca="false">QUARTILE(J$2:J$37,1)</f>
-        <v>-5.38604826828465</v>
+        <v>-12.3593822877143</v>
       </c>
       <c r="K43" s="4" t="n">
         <f aca="false">QUARTILE(K$2:K$37,1)</f>
-        <v>-24.5864808918086</v>
+        <v>-27.3204191781507</v>
       </c>
       <c r="L43" s="4" t="n">
         <f aca="false">QUARTILE(L$2:L$37,1)</f>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="E44" s="12" t="n">
         <f aca="false">QUARTILE(E$2:E$37,2)</f>
-        <v>241.936154315319</v>
+        <v>277.734827113417</v>
       </c>
       <c r="F44" s="12" t="n">
         <f aca="false">QUARTILE(F$2:F$37,2)</f>
@@ -7316,15 +7316,15 @@
       </c>
       <c r="J44" s="12" t="n">
         <f aca="false">QUARTILE(J$2:J$37,2)</f>
-        <v>0.67748122643204</v>
+        <v>-0.702054464160275</v>
       </c>
       <c r="K44" s="12" t="n">
         <f aca="false">QUARTILE(K$2:K$37,2)</f>
-        <v>3.95662988178123</v>
+        <v>-0.980213047080347</v>
       </c>
       <c r="L44" s="12" t="n">
         <f aca="false">QUARTILE(L$2:L$37,2)</f>
-        <v>246.801639401386</v>
+        <v>278.632712640027</v>
       </c>
       <c r="M44" s="12" t="n">
         <f aca="false">QUARTILE(M$2:M$37,2)</f>
@@ -7337,11 +7337,11 @@
       </c>
       <c r="E45" s="4" t="n">
         <f aca="false">QUARTILE(E$2:E$37,3)</f>
-        <v>283.517178769891</v>
+        <v>383.802970914519</v>
       </c>
       <c r="F45" s="4" t="n">
         <f aca="false">QUARTILE(F$2:F$37,3)</f>
-        <v>280</v>
+        <v>362.5</v>
       </c>
       <c r="G45" s="4" t="n">
         <f aca="false">QUARTILE(G$2:G$37,3)</f>
@@ -7357,15 +7357,15 @@
       </c>
       <c r="J45" s="4" t="n">
         <f aca="false">QUARTILE(J$2:J$37,3)</f>
-        <v>6.43850741302369</v>
+        <v>12.4009469246763</v>
       </c>
       <c r="K45" s="4" t="n">
         <f aca="false">QUARTILE(K$2:K$37,3)</f>
-        <v>28.2756708712314</v>
+        <v>27.1995946138579</v>
       </c>
       <c r="L45" s="4" t="n">
         <f aca="false">QUARTILE(L$2:L$37,3)</f>
-        <v>279.265847744427</v>
+        <v>380.267684596293</v>
       </c>
       <c r="M45" s="4" t="n">
         <f aca="false">QUARTILE(M$2:M$37,3)</f>
@@ -7378,11 +7378,11 @@
       </c>
       <c r="E46" s="4" t="n">
         <f aca="false">MAX(E2:E37)</f>
-        <v>346.267692615434</v>
+        <v>435.315386855425</v>
       </c>
       <c r="F46" s="4" t="n">
         <f aca="false">MAX(F2:F37)</f>
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="G46" s="4" t="n">
         <f aca="false">MAX(G2:G37)</f>
@@ -7398,19 +7398,19 @@
       </c>
       <c r="J46" s="4" t="n">
         <f aca="false">MAX(J2:J37)</f>
-        <v>18.7724852146633</v>
+        <v>18.9463818343497</v>
       </c>
       <c r="K46" s="4" t="n">
         <f aca="false">MAX(K2:K37)</f>
-        <v>66.2676926154341</v>
+        <v>65.3153868554251</v>
       </c>
       <c r="L46" s="4" t="n">
         <f aca="false">MAX(L2:L37)</f>
-        <v>333.662146477281</v>
+        <v>430</v>
       </c>
       <c r="M46" s="4" t="n">
         <f aca="false">MAX(M2:M37)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7419,15 +7419,15 @@
       </c>
       <c r="E47" s="4" t="n">
         <f aca="false">E45-E43</f>
-        <v>107.609605713642</v>
+        <v>217.099262181126</v>
       </c>
       <c r="F47" s="4" t="n">
         <f aca="false">F45-F43</f>
-        <v>92.5</v>
+        <v>175</v>
       </c>
       <c r="G47" s="4" t="n">
         <f aca="false">G45-G43</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H47" s="4" t="n">
         <f aca="false">H45-H43</f>
@@ -7439,15 +7439,15 @@
       </c>
       <c r="J47" s="4" t="n">
         <f aca="false">J45-J43</f>
-        <v>11.8245556813083</v>
+        <v>24.7603292123907</v>
       </c>
       <c r="K47" s="4" t="n">
         <f aca="false">K45-K43</f>
-        <v>52.86215176304</v>
+        <v>54.5200137920087</v>
       </c>
       <c r="L47" s="4" t="n">
         <f aca="false">L45-L43</f>
-        <v>110.166667445121</v>
+        <v>211.168504296986</v>
       </c>
       <c r="M47" s="4" t="n">
         <f aca="false">M45-M43</f>
@@ -7460,15 +7460,15 @@
       </c>
       <c r="E48" s="4" t="n">
         <f aca="false">E43-1.5*E47</f>
-        <v>14.4931644857851</v>
+        <v>-158.945184538297</v>
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">F43-1.5*F47</f>
-        <v>48.75</v>
+        <v>-75</v>
       </c>
       <c r="G48" s="4" t="n">
         <f aca="false">G43-1.5*G47</f>
-        <v>-15</v>
+        <v>10</v>
       </c>
       <c r="H48" s="4" t="n">
         <f aca="false">H43-1.5*H47</f>
@@ -7480,15 +7480,15 @@
       </c>
       <c r="J48" s="4" t="n">
         <f aca="false">J43-1.5*J47</f>
-        <v>-23.1228817902472</v>
+        <v>-49.4998761063003</v>
       </c>
       <c r="K48" s="4" t="n">
         <f aca="false">K43-1.5*K47</f>
-        <v>-103.879708536369</v>
+        <v>-109.100439866164</v>
       </c>
       <c r="L48" s="4" t="n">
         <f aca="false">L43-1.5*L47</f>
-        <v>3.84917913162585</v>
+        <v>-147.653576146172</v>
       </c>
       <c r="M48" s="4" t="n">
         <f aca="false">M43-1.5*M47</f>
@@ -7501,15 +7501,15 @@
       </c>
       <c r="E49" s="4" t="n">
         <f aca="false">E45+1.5*E47</f>
-        <v>444.931587340354</v>
+        <v>709.451864186209</v>
       </c>
       <c r="F49" s="4" t="n">
         <f aca="false">F45+1.5*F47</f>
-        <v>418.75</v>
+        <v>625</v>
       </c>
       <c r="G49" s="4" t="n">
         <f aca="false">G45+1.5*G47</f>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H49" s="4" t="n">
         <f aca="false">H45+1.5*H47</f>
@@ -7521,15 +7521,15 @@
       </c>
       <c r="J49" s="4" t="n">
         <f aca="false">J45+1.5*J47</f>
-        <v>24.1753409349862</v>
+        <v>49.5414407432623</v>
       </c>
       <c r="K49" s="4" t="n">
         <f aca="false">K45+1.5*K47</f>
-        <v>107.568898515791</v>
+        <v>108.979615301871</v>
       </c>
       <c r="L49" s="4" t="n">
         <f aca="false">L45+1.5*L47</f>
-        <v>444.515848912108</v>
+        <v>697.020441041772</v>
       </c>
       <c r="M49" s="4" t="n">
         <f aca="false">M45+1.5*M47</f>
@@ -7542,15 +7542,15 @@
       </c>
       <c r="E50" s="4" t="n">
         <f aca="false">E$39-3*E$40</f>
-        <v>36.5357804731467</v>
+        <v>-38.546329499946</v>
       </c>
       <c r="F50" s="4" t="n">
         <f aca="false">F$39-3*F$40</f>
-        <v>49.8938664776016</v>
+        <v>-41.0696125855822</v>
       </c>
       <c r="G50" s="4" t="n">
         <f aca="false">G$39-3*G$40</f>
-        <v>-10.0699194422562</v>
+        <v>10</v>
       </c>
       <c r="H50" s="4" t="n">
         <f aca="false">H$39-3*H$40</f>
@@ -7562,19 +7562,19 @@
       </c>
       <c r="J50" s="4" t="n">
         <f aca="false">J$39-3*J$40</f>
-        <v>-28.7241757633622</v>
+        <v>-40.0262834930645</v>
       </c>
       <c r="K50" s="4" t="n">
         <f aca="false">K$39-3*K$40</f>
-        <v>-106.573498421028</v>
+        <v>-106.975554771185</v>
       </c>
       <c r="L50" s="4" t="n">
         <f aca="false">L$39-3*L$40</f>
-        <v>46.7614023059415</v>
+        <v>-29.9337598292263</v>
       </c>
       <c r="M50" s="4" t="n">
         <f aca="false">M$39-3*M$40</f>
-        <v>0</v>
+        <v>-56.6666666666667</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E51" s="4" t="n">
         <f aca="false">E$39+3*E$40</f>
-        <v>429.902253498075</v>
+        <v>593.490490121063</v>
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">F$39+3*F$40</f>
-        <v>415.106133522398</v>
+        <v>591.069612585582</v>
       </c>
       <c r="G51" s="4" t="n">
         <f aca="false">G$39+3*G$40</f>
-        <v>20.3556337279704</v>
+        <v>10</v>
       </c>
       <c r="H51" s="4" t="n">
         <f aca="false">H$39+3*H$40</f>
@@ -7603,19 +7603,19 @@
       </c>
       <c r="J51" s="4" t="n">
         <f aca="false">J$39+3*J$40</f>
-        <v>30.1622097345836</v>
+        <v>38.3037774475146</v>
       </c>
       <c r="K51" s="4" t="n">
         <f aca="false">K$39+3*K$40</f>
-        <v>108.011532392249</v>
+        <v>105.253048725635</v>
       </c>
       <c r="L51" s="4" t="n">
         <f aca="false">L$39+3*L$40</f>
-        <v>418.238597694059</v>
+        <v>579.933759829226</v>
       </c>
       <c r="M51" s="4" t="n">
         <f aca="false">M$39+3*M$40</f>
-        <v>0</v>
+        <v>63.3333333333334</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7624,15 +7624,15 @@
       </c>
       <c r="E52" s="12" t="n">
         <f aca="false">SUM(E2:E37)/COUNT(E2:E37)</f>
-        <v>233.219016985611</v>
+        <v>277.472080310558</v>
       </c>
       <c r="F52" s="12" t="n">
         <f aca="false">SUM(F2:F37)/COUNT(F2:F37)</f>
-        <v>232.5</v>
+        <v>275</v>
       </c>
       <c r="G52" s="12" t="n">
         <f aca="false">SUM(G2:G37)/COUNT(G2:G37)</f>
-        <v>5.14285714285714</v>
+        <v>10</v>
       </c>
       <c r="H52" s="12" t="n">
         <f aca="false">SUM(H2:H37)/COUNT(H2:H37)</f>
@@ -7644,19 +7644,19 @@
       </c>
       <c r="J52" s="12" t="n">
         <f aca="false">SUM(J2:J37)/COUNT(J2:J37)</f>
-        <v>0.719016985610709</v>
+        <v>-0.861253022774944</v>
       </c>
       <c r="K52" s="12" t="n">
         <f aca="false">SUM(K2:K37)/COUNT(K2:K37)</f>
-        <v>0.719016985610715</v>
+        <v>-0.861253022774937</v>
       </c>
       <c r="L52" s="12" t="n">
         <f aca="false">SUM(L2:L37)/COUNT(L2:L37)</f>
-        <v>232.5</v>
+        <v>275</v>
       </c>
       <c r="M52" s="12" t="n">
         <f aca="false">SUM(M2:M37)/COUNT(M2:M37)</f>
-        <v>0</v>
+        <v>3.33333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -7678,805 +7678,807 @@
   </sheetPr>
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="14" t="n">
         <v>43982</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1822527.63</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">B2-B$67</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="14" t="n">
         <v>44012</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1906986.06</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">B3-B$67</f>
         <v>84458.4300000002</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="14" t="n">
         <v>44043</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>1914151.43</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">B4-B$67</f>
         <v>91623.8000000001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="14" t="n">
         <v>44074</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>1947620.27</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">B5-B$67</f>
         <v>125092.64</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="14" t="n">
         <v>44104</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>1992165.02</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">B6-B$67</f>
         <v>169637.39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="14" t="n">
         <v>44135</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>2009546.99</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">B7-B$67</f>
         <v>187019.36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="14" t="n">
         <v>44165</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>2034262.32</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">B8-B$67</f>
         <v>211734.69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="14" t="n">
         <v>44196</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>2107294.9</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false">B9-B$67</f>
         <v>284767.27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="14" t="n">
         <v>44227</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>2066967.77</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">B10-B$67</f>
         <v>244440.14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="14" t="n">
         <v>44255</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>2074516.75</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">B11-B$67</f>
         <v>251989.12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="14" t="n">
         <v>44286</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>2038768.04</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">B12-B$67</f>
         <v>216240.41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="14" t="n">
         <v>44316</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>2048501.02</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">B13-B$67</f>
         <v>225973.39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="14" t="n">
         <v>44347</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>2080769.59</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">B14-B$67</f>
         <v>258241.96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="14" t="n">
         <v>44377</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>2164412.06</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">B15-B$67</f>
         <v>341884.43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="14" t="n">
         <v>44408</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>2227093.61</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">B16-B$67</f>
         <v>404565.98</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="14" t="n">
         <v>44439</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>2305051.53</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <f aca="false">B17-B$67</f>
         <v>482523.9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="14" t="n">
         <v>44469</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>2282855.62</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <f aca="false">B18-B$67</f>
         <v>460327.99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="14" t="n">
         <v>44500</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>2250411.81</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <f aca="false">B19-B$67</f>
         <v>427884.18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="14" t="n">
         <v>44530</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>2265461.55</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <f aca="false">B20-B$67</f>
         <v>442933.92</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="14" t="n">
         <v>44561</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>2247845.53</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <f aca="false">B21-B$67</f>
         <v>425317.9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="14" t="n">
         <v>44592</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>2212236.43</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <f aca="false">B22-B$67</f>
         <v>389708.8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="14" t="n">
         <v>44620</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>2275442.02</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <f aca="false">B23-B$67</f>
         <v>452914.39</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="14" t="n">
         <v>44651</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>2148374.22</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <f aca="false">B24-B$67</f>
         <v>325846.59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="14" t="n">
         <v>44681</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>2162238.29</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <f aca="false">B25-B$67</f>
         <v>339710.66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="14" t="n">
         <v>44712</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>2111936.1</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <f aca="false">B26-B$67</f>
         <v>289408.47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="14" t="n">
         <v>44742</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>2279230.35</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <f aca="false">B27-B$67</f>
         <v>456702.72</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="14" t="n">
         <v>44773</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>2405671.09</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <f aca="false">B28-B$67</f>
         <v>583143.46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="14" t="n">
         <v>44804</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>2546779.74</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <f aca="false">B29-B$67</f>
         <v>724252.11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="14" t="n">
         <v>44834</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>2618165.74</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <f aca="false">B30-B$67</f>
         <v>795638.11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="14" t="n">
         <v>44865</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>2583904.56</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <f aca="false">B31-B$67</f>
         <v>761376.93</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="14" t="n">
         <v>44895</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>2710607.01</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <f aca="false">B32-B$67</f>
         <v>888079.38</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="14" t="n">
         <v>44926</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>2677844.76</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <f aca="false">B33-B$67</f>
         <v>855317.13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="14" t="n">
         <v>44957</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>2612203.59</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <f aca="false">B34-B$67</f>
         <v>789675.96</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="14" t="n">
         <v>44985</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>2528173.24</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <f aca="false">B35-B$67</f>
         <v>705645.61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
+      <c r="A36" s="14" t="n">
         <v>45016</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>2467083.49</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <f aca="false">B36-B$67</f>
         <v>644555.86</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
+      <c r="A37" s="14" t="n">
         <v>45046</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>2557750.47</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <f aca="false">B37-B$67</f>
         <v>735222.84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
+      <c r="A38" s="14" t="n">
         <v>45077</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>2472494.34</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <f aca="false">B38-B$67</f>
         <v>649966.71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="n">
+      <c r="A39" s="14" t="n">
         <v>45107</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>2615711.48</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <f aca="false">B39-B$67</f>
         <v>793183.85</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="n">
+      <c r="A40" s="14" t="n">
         <v>45138</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>2823379.38</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <f aca="false">B40-B$67</f>
         <v>1000851.75</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="n">
+      <c r="A41" s="14" t="n">
         <v>45169</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>2886093.39</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <f aca="false">B41-B$67</f>
         <v>1063565.76</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="n">
+      <c r="A42" s="14" t="n">
         <v>45199</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>2922934.66</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <f aca="false">B42-B$67</f>
         <v>1100407.03</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13" t="n">
+      <c r="A43" s="14" t="n">
         <v>45230</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>2943052.01</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <f aca="false">B43-B$67</f>
         <v>1120524.38</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="n">
+      <c r="A44" s="14" t="n">
         <v>45260</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>2917686.54</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <f aca="false">B44-B$67</f>
         <v>1095158.91</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="n">
+      <c r="A45" s="14" t="n">
         <v>45291</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>3021740.8</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <f aca="false">B45-B$67</f>
         <v>1199213.17</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="n">
+      <c r="A46" s="14" t="n">
         <v>45322</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>3071898.14</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <f aca="false">B46-B$67</f>
         <v>1249370.51</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="13" t="n">
+      <c r="A47" s="14" t="n">
         <v>45351</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>2982222.42</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <f aca="false">B47-B$67</f>
         <v>1159694.79</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="13" t="n">
+      <c r="A48" s="14" t="n">
         <v>45382</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>3023921.84</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <f aca="false">B48-B$67</f>
         <v>1201394.21</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="n">
+      <c r="A49" s="14" t="n">
         <v>45412</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>3015969.21</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <f aca="false">B49-B$67</f>
         <v>1193441.58</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
+      <c r="A50" s="14" t="n">
         <v>45443</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>3088202.3</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <f aca="false">B50-B$67</f>
         <v>1265674.67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
+      <c r="A51" s="14" t="n">
         <v>45473</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>3353777.85</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <f aca="false">B51-B$67</f>
         <v>1531250.22</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
+      <c r="A52" s="14" t="n">
         <v>45504</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>3484152.65</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <f aca="false">B52-B$67</f>
         <v>1661625.02</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
+      <c r="A53" s="14" t="n">
         <v>45535</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>3518464.93</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <f aca="false">B53-B$67</f>
         <v>1695937.3</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="13" t="n">
+      <c r="A54" s="14" t="n">
         <v>45565</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>3460513.9</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <f aca="false">B54-B$67</f>
         <v>1637986.27</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
+      <c r="A55" s="14" t="n">
         <v>45596</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>3442660.92</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <f aca="false">B55-B$67</f>
         <v>1620133.29</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="13" t="n">
+      <c r="A56" s="14" t="n">
         <v>45626</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>3404823.48</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <f aca="false">B56-B$67</f>
         <v>1582295.85</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="13" t="n">
+      <c r="A57" s="14" t="n">
         <v>45657</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>3518150.74</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <f aca="false">B57-B$67</f>
         <v>1695623.11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="n">
+      <c r="A58" s="14" t="n">
         <v>45688</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>3538673.12</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <f aca="false">B58-B$67</f>
         <v>1716145.49</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="13" t="n">
+      <c r="A59" s="14" t="n">
         <v>45716</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>3398359.34</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <f aca="false">B59-B$67</f>
         <v>1575831.71</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="13" t="n">
+      <c r="A60" s="14" t="n">
         <v>45747</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>3422817.39</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <f aca="false">B60-B$67</f>
         <v>1600289.76</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="13" t="n">
+      <c r="A61" s="14" t="n">
         <v>45777</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>3470731.42</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <f aca="false">B61-B$67</f>
         <v>1648203.79</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13" t="n">
+      <c r="A62" s="14" t="n">
         <v>45808</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>3439077</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <f aca="false">B62-B$67</f>
         <v>1616549.37</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
+      <c r="A63" s="14" t="n">
         <v>45838</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>3588689.81</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <f aca="false">B63-B$67</f>
         <v>1766162.18</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
+      <c r="A64" s="14" t="n">
         <v>45869</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>3858725.56</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <f aca="false">B64-B$67</f>
         <v>2036197.93</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
+      <c r="A65" s="14" t="n">
         <v>45900</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>4159902.06</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <f aca="false">B65-B$67</f>
         <v>2337374.43</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="n">
+      <c r="A66" s="14" t="n">
         <v>45930</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>4138732.28</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <f aca="false">B66-B$67</f>
         <v>2316204.65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="14" t="n">
+      <c r="B67" s="2" t="n">
         <f aca="false">MIN(B2:B66)</f>
         <v>1822527.63</v>
       </c>
